--- a/Document/8.2.ProjectTestCaseSprint2.xlsx
+++ b/Document/8.2.ProjectTestCaseSprint2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Khoá luận tốt nghiệp\Doc_TN _Update\Doc_TN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FX506LH\Downloads\Doc_TN\Doc_TN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7382B9-2D27-402D-9F7D-41E8A797810F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6896DA5F-629A-404F-B992-CC64321F0586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="694" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="694" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trường hợp kiểm thử" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="302">
   <si>
     <t>Tên dự án</t>
   </si>
@@ -308,9 +308,6 @@
     <t>Failed</t>
   </si>
   <si>
-    <t>Quản cáo bài viết</t>
-  </si>
-  <si>
     <t>Quản lý toàn bộ bài viết</t>
   </si>
   <si>
@@ -332,9 +329,6 @@
     <t>Quản lý người dùng</t>
   </si>
   <si>
-    <t xml:space="preserve">Dịch </t>
-  </si>
-  <si>
     <t>GUI-NN01</t>
   </si>
   <si>
@@ -399,9 +393,6 @@
   </si>
   <si>
     <t>GUI-ADV02</t>
-  </si>
-  <si>
-    <t>16/04/2025</t>
   </si>
   <si>
     <t>17/04/2025</t>
@@ -565,51 +556,6 @@
 Color : red</t>
   </si>
   <si>
-    <t>18/4/2025</t>
-  </si>
-  <si>
-    <t>Xem danh sách bài viết quảng cáo</t>
-  </si>
-  <si>
-    <t>Truy cập vào postAds</t>
-  </si>
-  <si>
-    <t>Hiển thị danh sách bài viết đúng định dạng</t>
-  </si>
-  <si>
-    <t>Kiểm tra tổng số bài quảng cáo</t>
-  </si>
-  <si>
-    <t>Quan sát mục “Total Post Ads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiển thị đúng kết quả </t>
-  </si>
-  <si>
-    <t>Hiển thị đúng kết quả</t>
-  </si>
-  <si>
-    <t>Kiểm tra khi không có lượt tương tác</t>
-  </si>
-  <si>
-    <t>Tất cả bài = 0 like, 0 comment, 0 view</t>
-  </si>
-  <si>
-    <t>Các cột Views, Likes, Comments đều hiển thị giá trị 0</t>
-  </si>
-  <si>
-    <t>Phân biệt gói quảng cáo theo bài viết</t>
-  </si>
-  <si>
-    <t>Xem cột “Package Ads”</t>
-  </si>
-  <si>
-    <t>Hiển thị đúng tên gói</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiển thị đúng tên gói </t>
-  </si>
-  <si>
     <t>[Management User] Label</t>
   </si>
   <si>
@@ -620,10 +566,6 @@
     <t>[Table Users] Display</t>
   </si>
   <si>
-    <t>Table : visible
-Status : enable</t>
-  </si>
-  <si>
     <t>19/04/2025</t>
   </si>
   <si>
@@ -649,9 +591,6 @@
   </si>
   <si>
     <t>Trạng thái tài khoản cập nhật thành công</t>
-  </si>
-  <si>
-    <t>[Management Post] Label</t>
   </si>
   <si>
     <t>Label : Management Post
@@ -692,155 +631,13 @@
     <t>FUNCTION_SHOW Quảng cáo bài viết</t>
   </si>
   <si>
-    <t>[Advertisement] Title</t>
-  </si>
-  <si>
-    <t>[Total Post Ads] Box</t>
-  </si>
-  <si>
-    <t>[Total Views] Box</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Total Interact] Box	</t>
-  </si>
-  <si>
-    <t>GUI-ADV05</t>
-  </si>
-  <si>
-    <t>GUI-ADV06</t>
-  </si>
-  <si>
-    <t>GUI-ADV07</t>
-  </si>
-  <si>
-    <t>GUI-ADV08</t>
-  </si>
-  <si>
-    <t>GUI-ADV09</t>
-  </si>
-  <si>
-    <t>GUI-ADV10</t>
-  </si>
-  <si>
-    <t>GUI-ADV11</t>
-  </si>
-  <si>
-    <t>[Total Actives] Box</t>
-  </si>
-  <si>
-    <t>Label : Advertisement
-Status : visible</t>
-  </si>
-  <si>
-    <t>Label : Total Post Ads
-Value : Post</t>
-  </si>
-  <si>
-    <t>Label : Total Post Ads
-Value : 1 Post</t>
-  </si>
-  <si>
-    <t>Label : Total Views
-Value : Views</t>
-  </si>
-  <si>
-    <t>Label : Total Views
-Value : 0 Views</t>
-  </si>
-  <si>
-    <t>Label : Total Interact
-Value : 5 Interact</t>
-  </si>
-  <si>
-    <t>Label : Total Interact
-Value : Interact</t>
-  </si>
-  <si>
-    <t>Label : Total Actives
--Value : 0 Active</t>
-  </si>
-  <si>
-    <t>Label : Total Actives
-Value : Active</t>
-  </si>
-  <si>
-    <t>[Ads Table] Display</t>
-  </si>
-  <si>
     <t>[Type Post] Column</t>
   </si>
   <si>
     <t>[Language] Column</t>
   </si>
   <si>
-    <t>[Views / Likes / Comments] Columns</t>
-  </si>
-  <si>
-    <t>[Package Ads] Column</t>
-  </si>
-  <si>
-    <t>[Price] Column</t>
-  </si>
-  <si>
-    <t>GUI-ADV12</t>
-  </si>
-  <si>
-    <t>GUI-ADV13</t>
-  </si>
-  <si>
     <t>[Active] Column</t>
-  </si>
-  <si>
-    <t>[Pagination] Status</t>
-  </si>
-  <si>
-    <t>Label : Type Post
-Value : CONTENT</t>
-  </si>
-  <si>
-    <t>Label : Language
-Value : language</t>
-  </si>
-  <si>
-    <t>Label : Language
-Value : English</t>
-  </si>
-  <si>
-    <t>View, Like, Comment</t>
-  </si>
-  <si>
-    <t>Views = 0
-Likes = 2
-Comments = 3</t>
-  </si>
-  <si>
-    <t>Label : Package Ads
-Value : package 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Label : Package Ads
-Value : Name ads </t>
-  </si>
-  <si>
-    <t>Label : Price
-Value : $10</t>
-  </si>
-  <si>
-    <t>Label : Price
-Value : $</t>
-  </si>
-  <si>
-    <t>Label : Active
-Value : Inactive</t>
-  </si>
-  <si>
-    <t>Pagination : hidden hoặc disabled</t>
-  </si>
-  <si>
-    <t>Pagination : không hoạt động</t>
-  </si>
-  <si>
-    <t>21/4/2025</t>
   </si>
   <si>
     <t>GUI-USER05</t>
@@ -1020,9 +817,6 @@
     <t xml:space="preserve">Đúng định dạng dd/MM/yyyy </t>
   </si>
   <si>
-    <t>Format hiển thị đúng</t>
-  </si>
-  <si>
     <t>[Translate Post] Button Visibility</t>
   </si>
   <si>
@@ -1045,9 +839,6 @@
     <t>Click Translate Post khi giao diện là English</t>
   </si>
   <si>
-    <t xml:space="preserve">Hiển thị đúng bản dịch </t>
-  </si>
-  <si>
     <t xml:space="preserve">Hiển thị nội dung bài viết đã được dịch sang tiếng Anh </t>
   </si>
   <si>
@@ -1087,7 +878,114 @@
     <t>Nút "Translate Post" không hiển thị</t>
   </si>
   <si>
-    <t xml:space="preserve">Đã fix </t>
+    <t>Đô</t>
+  </si>
+  <si>
+    <t>Khang, Đô</t>
+  </si>
+  <si>
+    <t>[New user SignUp] Label</t>
+  </si>
+  <si>
+    <t>[New user advertisement] Label</t>
+  </si>
+  <si>
+    <t>Label : Black
+Status : visible</t>
+  </si>
+  <si>
+    <t>Label : White
+Status : visible</t>
+  </si>
+  <si>
+    <t>[Payment Method] Dialog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Sellect]Button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Mở giao diện chọn gói quảng cáo</t>
+  </si>
+  <si>
+    <t>Click nút "Advertisement"</t>
+  </si>
+  <si>
+    <t>Hiển thị popup chọn gói quảng cáo có đầy đủ thông tin</t>
+  </si>
+  <si>
+    <t>Chọn gói quảng cáo bất kỳ</t>
+  </si>
+  <si>
+    <t>Click chọn 1 radio button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gói được chọn được đánh dấu, thông tin giá và mô tả hiện lên đúng </t>
+  </si>
+  <si>
+    <t>Gói được chọn được đánh dấu, thông tin giá và mô tả hiện lên đúng</t>
+  </si>
+  <si>
+    <t>Chọn phương thức thanh toán</t>
+  </si>
+  <si>
+    <t>Click "Select" sau khi chọn gói</t>
+  </si>
+  <si>
+    <t>Hiển thị trang chọn phương thức thanh toán (QR, thẻ nội địa, thẻ quốc tế, app)</t>
+  </si>
+  <si>
+    <t>Điền thông tin thẻ thanh toán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhập thông tin thanh toán </t>
+  </si>
+  <si>
+    <t>Cho phép nhập thông tin, không lỗi định dạng, nút Continue hoạt động</t>
+  </si>
+  <si>
+    <t>Hoàn tất giao dịch quảng cáo</t>
+  </si>
+  <si>
+    <t>FUNC-ADV05</t>
+  </si>
+  <si>
+    <t>Click "Continue" sau khi nhập thông tin</t>
+  </si>
+  <si>
+    <t>Giao dịch được xử lý, thông báo thanh toán thành công, bài viết được gắn quảng cáo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	[Payment Form] Fields Display</t>
+  </si>
+  <si>
+    <t>Các trường: Card Number, Holder, Date hiển thị đầy đủ</t>
+  </si>
+  <si>
+    <t>Hiển thị các phương thức thanh toán</t>
+  </si>
+  <si>
+    <t>18/04/2025</t>
+  </si>
+  <si>
+    <t>22/04/2025</t>
+  </si>
+  <si>
+    <t>26/04/2025</t>
+  </si>
+  <si>
+    <t>27/04/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Không lưu được </t>
+  </si>
+  <si>
+    <t>Không cập nhật thành công</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị sai thông tin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị sai </t>
   </si>
 </sst>
 </file>
@@ -1373,7 +1271,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1431,9 +1329,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -1449,16 +1344,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1482,9 +1368,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1497,12 +1380,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1546,8 +1446,14 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1672,21 +1578,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>941294</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>161365</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1866900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CB80710-2588-4E59-8DDF-FD916AEF4931}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0268C3C4-3141-42C0-A195-D28CCFB0D6DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1702,8 +1608,140 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1470212"/>
-          <a:ext cx="11958918" cy="4823012"/>
+          <a:off x="0" y="1314451"/>
+          <a:ext cx="9582150" cy="5543549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1943101</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78204F73-871C-42BC-8E94-63879B6FCFB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9658351" y="1295400"/>
+          <a:ext cx="9848849" cy="5562600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2247900</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A58F7375-D4B4-4F50-B85F-5B49ECA13EAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6972300"/>
+          <a:ext cx="9963150" cy="5734050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2133601</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE8D405E-A808-4B07-AE56-AC7796AF048F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9848851" y="6934201"/>
+          <a:ext cx="9810750" cy="5715000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2127,8 +2165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2160,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C3" s="53"/>
       <c r="D3" s="53"/>
@@ -2177,7 +2215,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>4</v>
@@ -2188,16 +2226,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" s="3">
         <v>5</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>88</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.8">
@@ -2214,7 +2252,7 @@
         <v>21</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>88</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.8">
@@ -2222,16 +2260,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D7" s="3">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>88</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.8">
@@ -2239,16 +2277,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="3">
         <v>9</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>88</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.8">
@@ -2256,16 +2294,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="3">
         <v>10</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>88</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.8">
@@ -2273,22 +2311,22 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="D10" s="3">
         <v>7</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>88</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.8">
-      <c r="D11" s="60">
+      <c r="D11" s="39">
         <f>SUM(D5:D10)</f>
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2305,8 +2343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14735D5-38DC-4114-9C9F-4BC4E661104C}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2326,7 +2364,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C1" s="57"/>
       <c r="D1" s="57"/>
@@ -2338,7 +2376,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="58"/>
       <c r="D2" s="58"/>
@@ -2488,7 +2526,7 @@
     </row>
     <row r="37" spans="1:13" ht="16.8">
       <c r="A37" s="56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B37" s="56"/>
       <c r="C37" s="56"/>
@@ -2505,81 +2543,81 @@
     </row>
     <row r="38" spans="1:13" ht="49.2" customHeight="1">
       <c r="A38" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" s="23"/>
+      <c r="D38" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="25" t="s">
-        <v>96</v>
-      </c>
       <c r="E38" s="16" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G38" s="17" t="s">
         <v>27</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I38" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J38" s="17" t="s">
         <v>27</v>
       </c>
       <c r="K38" s="18" t="s">
-        <v>207</v>
+        <v>294</v>
       </c>
       <c r="L38" s="19" t="s">
-        <v>88</v>
+        <v>266</v>
       </c>
       <c r="M38" s="15"/>
     </row>
     <row r="39" spans="1:13" ht="50.4">
       <c r="A39" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="24" t="s">
-        <v>98</v>
+        <v>164</v>
+      </c>
+      <c r="C39" s="24"/>
+      <c r="D39" s="23" t="s">
+        <v>96</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G39" s="17" t="s">
         <v>27</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I39" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J39" s="17" t="s">
         <v>27</v>
       </c>
       <c r="K39" s="18" t="s">
-        <v>207</v>
+        <v>294</v>
       </c>
       <c r="L39" s="19" t="s">
-        <v>88</v>
+        <v>266</v>
       </c>
       <c r="M39" s="15"/>
     </row>
     <row r="40" spans="1:13" ht="16.8">
       <c r="A40" s="55" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B40" s="55"/>
       <c r="C40" s="55"/>
@@ -2596,120 +2634,120 @@
     </row>
     <row r="41" spans="1:13" ht="67.2">
       <c r="A41" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="D41" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="E41" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="D41" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="E41" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="F41" s="26" t="s">
-        <v>105</v>
+      <c r="F41" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="G41" s="17" t="s">
         <v>27</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I41" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J41" s="17" t="s">
         <v>27</v>
       </c>
       <c r="K41" s="18" t="s">
-        <v>207</v>
+        <v>294</v>
       </c>
       <c r="L41" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="M41" s="22"/>
+        <v>266</v>
+      </c>
+      <c r="M41" s="21"/>
     </row>
     <row r="42" spans="1:13" ht="67.2">
       <c r="A42" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="D42" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="E42" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="F42" s="26" t="s">
-        <v>109</v>
+      <c r="F42" s="25" t="s">
+        <v>107</v>
       </c>
       <c r="G42" s="17" t="s">
         <v>27</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I42" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J42" s="17" t="s">
         <v>27</v>
       </c>
       <c r="K42" s="18" t="s">
-        <v>207</v>
+        <v>294</v>
       </c>
       <c r="L42" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="M42" s="22"/>
+        <v>266</v>
+      </c>
+      <c r="M42" s="21"/>
     </row>
     <row r="43" spans="1:13" ht="50.4">
       <c r="A43" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="D43" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="C43" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="F43" s="26" t="s">
-        <v>113</v>
+      <c r="F43" s="25" t="s">
+        <v>111</v>
       </c>
       <c r="G43" s="17" t="s">
         <v>84</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I43" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J43" s="17" t="s">
         <v>27</v>
       </c>
       <c r="K43" s="18" t="s">
-        <v>207</v>
+        <v>294</v>
       </c>
       <c r="L43" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="M43" s="22"/>
+        <v>266</v>
+      </c>
+      <c r="M43" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2745,8 +2783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75051B98-0F3C-43FC-BE1A-F2A1090BF7F7}">
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2771,7 +2809,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C1" s="57"/>
       <c r="D1" s="57"/>
@@ -2816,7 +2854,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="6">
         <f>COUNTIF(G11:G19,"Untested")</f>
@@ -2853,100 +2891,100 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="16.8">
-      <c r="A40" s="59" t="s">
+      <c r="A40" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="59" t="s">
+      <c r="B40" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="59" t="s">
+      <c r="C40" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="59" t="s">
+      <c r="D40" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="59" t="s">
+      <c r="E40" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="F40" s="59" t="s">
+      <c r="F40" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="59" t="s">
+      <c r="G40" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59" t="s">
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="59" t="s">
+      <c r="K40" s="60"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="60" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="16.8">
-      <c r="A41" s="59"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="59" t="s">
+      <c r="A41" s="60"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="H41" s="59"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="59" t="s">
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="K41" s="59"/>
-      <c r="L41" s="59"/>
-      <c r="M41" s="59"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="60"/>
     </row>
     <row r="42" spans="1:13" ht="16.8">
-      <c r="A42" s="59"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
+      <c r="A42" s="60"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
       <c r="G42" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H42" s="12" t="s">
+      <c r="H42" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="I42" s="7" t="s">
+      <c r="I42" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J42" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K42" s="12" t="s">
+      <c r="K42" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="L42" s="7" t="s">
+      <c r="L42" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="M42" s="59"/>
+      <c r="M42" s="60"/>
     </row>
     <row r="43" spans="1:13" ht="16.8">
-      <c r="A43" s="56" t="s">
+      <c r="A43" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="56"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="56"/>
-      <c r="L43" s="56"/>
-      <c r="M43" s="56"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="62"/>
+      <c r="K43" s="62"/>
+      <c r="L43" s="62"/>
+      <c r="M43" s="62"/>
     </row>
     <row r="44" spans="1:13" ht="42" customHeight="1">
       <c r="A44" s="13" t="s">
@@ -2955,8 +2993,8 @@
       <c r="B44" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
       <c r="E44" s="16" t="s">
         <v>26</v>
       </c>
@@ -2966,22 +3004,22 @@
       <c r="G44" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H44" s="27" t="s">
-        <v>117</v>
+      <c r="H44" s="41" t="s">
+        <v>170</v>
       </c>
       <c r="I44" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J44" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K44" s="27" t="s">
-        <v>208</v>
+      <c r="K44" s="41" t="s">
+        <v>187</v>
       </c>
       <c r="L44" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="M44" s="15"/>
+        <v>266</v>
+      </c>
+      <c r="M44" s="24"/>
     </row>
     <row r="45" spans="1:13" ht="33.6">
       <c r="A45" s="13" t="s">
@@ -2990,8 +3028,8 @@
       <c r="B45" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
       <c r="E45" s="16" t="s">
         <v>26</v>
       </c>
@@ -3001,22 +3039,22 @@
       <c r="G45" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H45" s="27" t="s">
-        <v>117</v>
+      <c r="H45" s="41" t="s">
+        <v>170</v>
       </c>
       <c r="I45" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J45" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K45" s="27" t="s">
-        <v>208</v>
+      <c r="K45" s="41" t="s">
+        <v>187</v>
       </c>
       <c r="L45" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="M45" s="15"/>
+        <v>266</v>
+      </c>
+      <c r="M45" s="24"/>
     </row>
     <row r="46" spans="1:13" ht="33.6">
       <c r="A46" s="13" t="s">
@@ -3025,8 +3063,8 @@
       <c r="B46" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
       <c r="E46" s="16" t="s">
         <v>26</v>
       </c>
@@ -3036,22 +3074,22 @@
       <c r="G46" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H46" s="27" t="s">
-        <v>117</v>
+      <c r="H46" s="41" t="s">
+        <v>170</v>
       </c>
       <c r="I46" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J46" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K46" s="27" t="s">
-        <v>208</v>
+      <c r="K46" s="41" t="s">
+        <v>187</v>
       </c>
       <c r="L46" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="M46" s="15"/>
+        <v>266</v>
+      </c>
+      <c r="M46" s="24"/>
     </row>
     <row r="47" spans="1:13" ht="33.6">
       <c r="A47" s="13" t="s">
@@ -3060,8 +3098,8 @@
       <c r="B47" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
       <c r="E47" s="16" t="s">
         <v>26</v>
       </c>
@@ -3071,22 +3109,22 @@
       <c r="G47" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H47" s="27" t="s">
-        <v>117</v>
+      <c r="H47" s="41" t="s">
+        <v>170</v>
       </c>
       <c r="I47" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J47" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K47" s="27" t="s">
-        <v>208</v>
+      <c r="K47" s="41" t="s">
+        <v>187</v>
       </c>
       <c r="L47" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="M47" s="15"/>
+        <v>266</v>
+      </c>
+      <c r="M47" s="24"/>
     </row>
     <row r="48" spans="1:13" ht="33.6">
       <c r="A48" s="13" t="s">
@@ -3095,8 +3133,8 @@
       <c r="B48" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
       <c r="E48" s="16" t="s">
         <v>26</v>
       </c>
@@ -3106,22 +3144,22 @@
       <c r="G48" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H48" s="27" t="s">
-        <v>117</v>
+      <c r="H48" s="41" t="s">
+        <v>170</v>
       </c>
       <c r="I48" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J48" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K48" s="27" t="s">
-        <v>208</v>
+      <c r="K48" s="41" t="s">
+        <v>187</v>
       </c>
       <c r="L48" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="M48" s="15"/>
+        <v>266</v>
+      </c>
+      <c r="M48" s="24"/>
     </row>
     <row r="49" spans="1:13" ht="33.6">
       <c r="A49" s="13" t="s">
@@ -3130,8 +3168,8 @@
       <c r="B49" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
       <c r="E49" s="16" t="s">
         <v>26</v>
       </c>
@@ -3141,22 +3179,22 @@
       <c r="G49" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H49" s="27" t="s">
-        <v>117</v>
+      <c r="H49" s="41" t="s">
+        <v>170</v>
       </c>
       <c r="I49" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J49" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K49" s="27" t="s">
-        <v>208</v>
+      <c r="K49" s="41" t="s">
+        <v>187</v>
       </c>
       <c r="L49" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="M49" s="15"/>
+        <v>266</v>
+      </c>
+      <c r="M49" s="24"/>
     </row>
     <row r="50" spans="1:13" ht="33.6">
       <c r="A50" s="13" t="s">
@@ -3165,8 +3203,8 @@
       <c r="B50" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
       <c r="E50" s="16" t="s">
         <v>26</v>
       </c>
@@ -3176,22 +3214,22 @@
       <c r="G50" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H50" s="27" t="s">
-        <v>117</v>
+      <c r="H50" s="41" t="s">
+        <v>170</v>
       </c>
       <c r="I50" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J50" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K50" s="27" t="s">
-        <v>208</v>
+      <c r="K50" s="41" t="s">
+        <v>187</v>
       </c>
       <c r="L50" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="M50" s="15"/>
+        <v>266</v>
+      </c>
+      <c r="M50" s="24"/>
     </row>
     <row r="51" spans="1:13" ht="33.6">
       <c r="A51" s="13" t="s">
@@ -3200,8 +3238,8 @@
       <c r="B51" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
       <c r="E51" s="16" t="s">
         <v>26</v>
       </c>
@@ -3211,22 +3249,22 @@
       <c r="G51" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H51" s="27" t="s">
-        <v>117</v>
+      <c r="H51" s="41" t="s">
+        <v>170</v>
       </c>
       <c r="I51" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J51" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K51" s="27" t="s">
-        <v>208</v>
+      <c r="K51" s="41" t="s">
+        <v>187</v>
       </c>
       <c r="L51" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="M51" s="15"/>
+        <v>266</v>
+      </c>
+      <c r="M51" s="24"/>
     </row>
     <row r="52" spans="1:13" ht="50.4">
       <c r="A52" s="13" t="s">
@@ -3235,8 +3273,8 @@
       <c r="B52" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
       <c r="E52" s="16" t="s">
         <v>26</v>
       </c>
@@ -3246,22 +3284,22 @@
       <c r="G52" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H52" s="27" t="s">
-        <v>117</v>
+      <c r="H52" s="41" t="s">
+        <v>170</v>
       </c>
       <c r="I52" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J52" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K52" s="27" t="s">
-        <v>208</v>
+      <c r="K52" s="41" t="s">
+        <v>187</v>
       </c>
       <c r="L52" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="M52" s="15"/>
+        <v>266</v>
+      </c>
+      <c r="M52" s="24"/>
     </row>
     <row r="53" spans="1:13" ht="33.6">
       <c r="A53" s="13" t="s">
@@ -3270,8 +3308,8 @@
       <c r="B53" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
       <c r="E53" s="16" t="s">
         <v>26</v>
       </c>
@@ -3281,22 +3319,22 @@
       <c r="G53" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H53" s="27" t="s">
-        <v>117</v>
+      <c r="H53" s="41" t="s">
+        <v>170</v>
       </c>
       <c r="I53" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J53" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K53" s="27" t="s">
-        <v>208</v>
+      <c r="K53" s="41" t="s">
+        <v>187</v>
       </c>
       <c r="L53" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="M53" s="15"/>
+        <v>266</v>
+      </c>
+      <c r="M53" s="24"/>
     </row>
     <row r="54" spans="1:13" ht="50.4">
       <c r="A54" s="13" t="s">
@@ -3305,8 +3343,8 @@
       <c r="B54" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
       <c r="E54" s="16" t="s">
         <v>26</v>
       </c>
@@ -3316,22 +3354,22 @@
       <c r="G54" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H54" s="27" t="s">
-        <v>117</v>
+      <c r="H54" s="41" t="s">
+        <v>170</v>
       </c>
       <c r="I54" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J54" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K54" s="27" t="s">
-        <v>208</v>
+      <c r="K54" s="41" t="s">
+        <v>187</v>
       </c>
       <c r="L54" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="M54" s="15"/>
+        <v>266</v>
+      </c>
+      <c r="M54" s="24"/>
     </row>
     <row r="55" spans="1:13" ht="50.4">
       <c r="A55" s="13" t="s">
@@ -3340,8 +3378,8 @@
       <c r="B55" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
       <c r="E55" s="16" t="s">
         <v>26</v>
       </c>
@@ -3351,22 +3389,22 @@
       <c r="G55" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H55" s="27" t="s">
-        <v>117</v>
+      <c r="H55" s="41" t="s">
+        <v>170</v>
       </c>
       <c r="I55" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J55" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K55" s="27" t="s">
-        <v>208</v>
+      <c r="K55" s="41" t="s">
+        <v>187</v>
       </c>
       <c r="L55" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="M55" s="15"/>
+        <v>266</v>
+      </c>
+      <c r="M55" s="24"/>
     </row>
     <row r="56" spans="1:13" ht="50.4">
       <c r="A56" s="13" t="s">
@@ -3375,8 +3413,8 @@
       <c r="B56" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
       <c r="E56" s="16" t="s">
         <v>26</v>
       </c>
@@ -3386,22 +3424,22 @@
       <c r="G56" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H56" s="27" t="s">
-        <v>117</v>
+      <c r="H56" s="41" t="s">
+        <v>170</v>
       </c>
       <c r="I56" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J56" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K56" s="27" t="s">
-        <v>208</v>
+      <c r="K56" s="41" t="s">
+        <v>187</v>
       </c>
       <c r="L56" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="M56" s="15"/>
+        <v>266</v>
+      </c>
+      <c r="M56" s="24"/>
     </row>
     <row r="57" spans="1:13" ht="50.4">
       <c r="A57" s="13" t="s">
@@ -3410,8 +3448,8 @@
       <c r="B57" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
       <c r="E57" s="16" t="s">
         <v>26</v>
       </c>
@@ -3421,22 +3459,22 @@
       <c r="G57" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H57" s="27" t="s">
-        <v>117</v>
+      <c r="H57" s="41" t="s">
+        <v>170</v>
       </c>
       <c r="I57" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J57" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K57" s="27" t="s">
-        <v>208</v>
+      <c r="K57" s="41" t="s">
+        <v>187</v>
       </c>
       <c r="L57" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="M57" s="15"/>
+        <v>266</v>
+      </c>
+      <c r="M57" s="24"/>
     </row>
     <row r="58" spans="1:13" ht="50.4">
       <c r="A58" s="13" t="s">
@@ -3445,8 +3483,8 @@
       <c r="B58" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
       <c r="E58" s="16" t="s">
         <v>29</v>
       </c>
@@ -3456,22 +3494,22 @@
       <c r="G58" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H58" s="27" t="s">
-        <v>117</v>
+      <c r="H58" s="41" t="s">
+        <v>170</v>
       </c>
       <c r="I58" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J58" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K58" s="27" t="s">
-        <v>208</v>
+      <c r="K58" s="41" t="s">
+        <v>187</v>
       </c>
       <c r="L58" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="M58" s="15"/>
+        <v>266</v>
+      </c>
+      <c r="M58" s="24"/>
     </row>
     <row r="59" spans="1:13" ht="33.6">
       <c r="A59" s="13" t="s">
@@ -3480,8 +3518,8 @@
       <c r="B59" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
       <c r="E59" s="16" t="s">
         <v>26</v>
       </c>
@@ -3491,39 +3529,39 @@
       <c r="G59" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H59" s="27" t="s">
-        <v>117</v>
+      <c r="H59" s="41" t="s">
+        <v>170</v>
       </c>
       <c r="I59" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J59" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K59" s="27" t="s">
-        <v>208</v>
+      <c r="K59" s="41" t="s">
+        <v>187</v>
       </c>
       <c r="L59" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="M59" s="15"/>
+        <v>266</v>
+      </c>
+      <c r="M59" s="24"/>
     </row>
     <row r="60" spans="1:13" ht="16.8">
-      <c r="A60" s="55" t="s">
+      <c r="A60" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="55"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="55"/>
-      <c r="G60" s="55"/>
-      <c r="H60" s="55"/>
-      <c r="I60" s="55"/>
-      <c r="J60" s="55"/>
-      <c r="K60" s="55"/>
-      <c r="L60" s="55"/>
-      <c r="M60" s="55"/>
+      <c r="B60" s="61"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="61"/>
+      <c r="H60" s="61"/>
+      <c r="I60" s="61"/>
+      <c r="J60" s="61"/>
+      <c r="K60" s="61"/>
+      <c r="L60" s="61"/>
+      <c r="M60" s="61"/>
     </row>
     <row r="61" spans="1:13" ht="67.2">
       <c r="A61" s="14" t="s">
@@ -3535,34 +3573,34 @@
       <c r="C61" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D61" s="20" t="s">
+      <c r="D61" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E61" s="21" t="s">
+      <c r="E61" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="F61" s="21" t="s">
+      <c r="F61" s="20" t="s">
         <v>68</v>
       </c>
       <c r="G61" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H61" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="I61" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="J61" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="K61" s="27" t="s">
-        <v>208</v>
+      <c r="H61" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="I61" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="J61" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="K61" s="41" t="s">
+        <v>187</v>
       </c>
       <c r="L61" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="M61" s="15"/>
+        <v>266</v>
+      </c>
+      <c r="M61" s="24"/>
     </row>
     <row r="62" spans="1:13" ht="117.6">
       <c r="A62" s="14" t="s">
@@ -3574,34 +3612,34 @@
       <c r="C62" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D62" s="20" t="s">
+      <c r="D62" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E62" s="21" t="s">
+      <c r="E62" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="F62" s="21" t="s">
+      <c r="F62" s="20" t="s">
         <v>72</v>
       </c>
       <c r="G62" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H62" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="I62" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="J62" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="K62" s="27" t="s">
-        <v>208</v>
+      <c r="H62" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="I62" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="J62" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="K62" s="41" t="s">
+        <v>187</v>
       </c>
       <c r="L62" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="M62" s="15"/>
+        <v>266</v>
+      </c>
+      <c r="M62" s="24"/>
     </row>
     <row r="63" spans="1:13" ht="117.6">
       <c r="A63" s="14" t="s">
@@ -3613,34 +3651,34 @@
       <c r="C63" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D63" s="20" t="s">
+      <c r="D63" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E63" s="21" t="s">
+      <c r="E63" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="F63" s="21" t="s">
+      <c r="F63" s="20" t="s">
         <v>72</v>
       </c>
       <c r="G63" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H63" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="I63" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="J63" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="K63" s="27" t="s">
-        <v>208</v>
+      <c r="H63" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="I63" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="J63" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="K63" s="41" t="s">
+        <v>187</v>
       </c>
       <c r="L63" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="M63" s="15"/>
+        <v>266</v>
+      </c>
+      <c r="M63" s="24"/>
     </row>
     <row r="64" spans="1:13" ht="100.8">
       <c r="A64" s="14" t="s">
@@ -3652,34 +3690,34 @@
       <c r="C64" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D64" s="20" t="s">
+      <c r="D64" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E64" s="21" t="s">
+      <c r="E64" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="F64" s="21" t="s">
+      <c r="F64" s="20" t="s">
         <v>77</v>
       </c>
       <c r="G64" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H64" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="I64" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="J64" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="K64" s="27" t="s">
-        <v>208</v>
+      <c r="H64" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="I64" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="J64" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="K64" s="41" t="s">
+        <v>187</v>
       </c>
       <c r="L64" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="M64" s="15"/>
+        <v>266</v>
+      </c>
+      <c r="M64" s="24"/>
     </row>
     <row r="65" spans="1:13" ht="84">
       <c r="A65" s="14" t="s">
@@ -3691,34 +3729,34 @@
       <c r="C65" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D65" s="20" t="s">
+      <c r="D65" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E65" s="21" t="s">
+      <c r="E65" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F65" s="21" t="s">
-        <v>80</v>
+      <c r="F65" s="20" t="s">
+        <v>298</v>
       </c>
       <c r="G65" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="H65" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="I65" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="J65" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="K65" s="27" t="s">
-        <v>208</v>
+        <v>84</v>
+      </c>
+      <c r="H65" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="I65" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="J65" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="K65" s="41" t="s">
+        <v>187</v>
       </c>
       <c r="L65" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="M65" s="15"/>
+        <v>266</v>
+      </c>
+      <c r="M65" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -3752,10 +3790,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E47B9E50-1C1F-4C71-9CD5-01E8122D415A}">
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3775,7 +3813,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C1" s="57"/>
       <c r="D1" s="57"/>
@@ -3787,7 +3825,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="58"/>
       <c r="D2" s="58"/>
@@ -3817,10 +3855,10 @@
         <v>12</v>
       </c>
       <c r="B4" s="9">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C4" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="6">
         <f>COUNTIF(G11:G19,"Untested")</f>
@@ -3831,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="9">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.8">
@@ -3839,7 +3877,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="9">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C5" s="9">
         <v>0</v>
@@ -3853,782 +3891,486 @@
         <v>0</v>
       </c>
       <c r="F5" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="16.8">
+      <c r="A68" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D68" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" s="59" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" ht="16.8">
-      <c r="A36" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="59" t="s">
+      <c r="F68" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="G36" s="59" t="s">
+      <c r="G68" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59" t="s">
+      <c r="H68" s="59"/>
+      <c r="I68" s="59"/>
+      <c r="J68" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="K36" s="59"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59" t="s">
+      <c r="K68" s="59"/>
+      <c r="L68" s="59"/>
+      <c r="M68" s="59" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="16.8">
-      <c r="A37" s="59"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59" t="s">
+    <row r="69" spans="1:13" ht="16.8">
+      <c r="A69" s="59"/>
+      <c r="B69" s="59"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="59"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59" t="s">
+      <c r="H69" s="59"/>
+      <c r="I69" s="59"/>
+      <c r="J69" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="K37" s="59"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
-    </row>
-    <row r="38" spans="1:13" ht="50.4">
-      <c r="A38" s="59"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="11" t="s">
+      <c r="K69" s="59"/>
+      <c r="L69" s="59"/>
+      <c r="M69" s="59"/>
+    </row>
+    <row r="70" spans="1:13" ht="50.4">
+      <c r="A70" s="59"/>
+      <c r="B70" s="59"/>
+      <c r="C70" s="59"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="59"/>
+      <c r="F70" s="59"/>
+      <c r="G70" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H38" s="12" t="s">
+      <c r="H70" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="I70" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="J38" s="11" t="s">
+      <c r="J70" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K38" s="12" t="s">
+      <c r="K70" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L38" s="7" t="s">
+      <c r="L70" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M38" s="59"/>
-    </row>
-    <row r="39" spans="1:13" ht="16.8">
-      <c r="A39" s="56" t="s">
-        <v>209</v>
-      </c>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="56"/>
-      <c r="K39" s="56"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="56"/>
-    </row>
-    <row r="40" spans="1:13" ht="33.6">
-      <c r="A40" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="E40" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="F40" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="G40" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H40" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="I40" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J40" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K40" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="L40" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M40" s="15"/>
-    </row>
-    <row r="41" spans="1:13" ht="50.4">
-      <c r="A41" s="13" t="s">
+      <c r="M70" s="59"/>
+    </row>
+    <row r="71" spans="1:13" ht="16.8">
+      <c r="A71" s="56" t="s">
+        <v>189</v>
+      </c>
+      <c r="B71" s="56"/>
+      <c r="C71" s="56"/>
+      <c r="D71" s="56"/>
+      <c r="E71" s="56"/>
+      <c r="F71" s="56"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="56"/>
+      <c r="J71" s="56"/>
+      <c r="K71" s="56"/>
+      <c r="L71" s="56"/>
+      <c r="M71" s="56"/>
+    </row>
+    <row r="72" spans="1:13" ht="50.4">
+      <c r="A72" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E72" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="F72" s="27" t="s">
+        <v>270</v>
+      </c>
+      <c r="G72" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H72" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="I72" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J72" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K72" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="L72" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M72" s="15"/>
+    </row>
+    <row r="73" spans="1:13" ht="33.6">
+      <c r="A73" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E73" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="F73" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="G73" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H73" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="I73" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J73" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K73" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="L73" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M73" s="15"/>
+    </row>
+    <row r="74" spans="1:13" ht="33.6">
+      <c r="A74" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B41" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="E41" s="31" t="s">
-        <v>224</v>
-      </c>
-      <c r="F41" s="31" t="s">
-        <v>225</v>
-      </c>
-      <c r="G41" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H41" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="I41" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J41" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K41" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="L41" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M41" s="15"/>
-    </row>
-    <row r="42" spans="1:13" ht="33.6">
-      <c r="A42" s="13" t="s">
+      <c r="B74" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E74" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="F74" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="G74" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H74" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="I74" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J74" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K74" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="L74" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M74" s="15"/>
+    </row>
+    <row r="75" spans="1:13" ht="50.4">
+      <c r="A75" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E75" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="F75" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="G75" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H75" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="I75" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J75" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K75" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="L75" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M75" s="23"/>
+    </row>
+    <row r="76" spans="1:13" ht="16.8">
+      <c r="A76" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="B76" s="56"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="56"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="56"/>
+      <c r="G76" s="56"/>
+      <c r="H76" s="56"/>
+      <c r="I76" s="56"/>
+      <c r="J76" s="56"/>
+      <c r="K76" s="56"/>
+      <c r="L76" s="56"/>
+      <c r="M76" s="56"/>
+    </row>
+    <row r="77" spans="1:13" ht="50.4">
+      <c r="A77" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="D77" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E77" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="F77" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="G77" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H77" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="I77" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J77" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K77" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="L77" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M77" s="15"/>
+    </row>
+    <row r="78" spans="1:13" ht="67.2">
+      <c r="A78" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B42" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E42" s="31" t="s">
-        <v>226</v>
-      </c>
-      <c r="F42" s="31" t="s">
-        <v>227</v>
-      </c>
-      <c r="G42" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H42" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="I42" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J42" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K42" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="L42" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M42" s="15"/>
-    </row>
-    <row r="43" spans="1:13" ht="33.6">
-      <c r="A43" s="13" t="s">
+      <c r="B78" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="D78" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E78" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="F78" s="27" t="s">
+        <v>280</v>
+      </c>
+      <c r="G78" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H78" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="I78" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J78" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K78" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="L78" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M78" s="15"/>
+    </row>
+    <row r="79" spans="1:13" ht="67.2">
+      <c r="A79" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B43" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E43" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="F43" s="31" t="s">
-        <v>228</v>
-      </c>
-      <c r="G43" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H43" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="I43" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J43" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K43" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="L43" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M43" s="24"/>
-    </row>
-    <row r="44" spans="1:13" ht="33.6">
-      <c r="A44" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="E44" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="F44" s="31" t="s">
-        <v>230</v>
-      </c>
-      <c r="G44" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="I44" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J44" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K44" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="L44" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M44" s="24"/>
-    </row>
-    <row r="45" spans="1:13" ht="33.6">
-      <c r="A45" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="E45" s="31" t="s">
+      <c r="B79" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="D79" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E79" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="F79" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="G79" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="F45" s="31" t="s">
+      <c r="I79" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J79" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K79" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="L79" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M79" s="15"/>
+    </row>
+    <row r="80" spans="1:13" ht="67.2">
+      <c r="A80" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E80" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="F80" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="G80" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="G45" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H45" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="I45" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J45" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K45" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="L45" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M45" s="24"/>
-    </row>
-    <row r="46" spans="1:13" ht="33.6">
-      <c r="A46" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="B46" s="45" t="s">
-        <v>233</v>
-      </c>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="E46" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="F46" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="G46" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H46" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="I46" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J46" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K46" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="L46" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M46" s="24"/>
-    </row>
-    <row r="47" spans="1:13" ht="33.6">
-      <c r="A47" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>234</v>
-      </c>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="E47" s="31" t="s">
-        <v>243</v>
-      </c>
-      <c r="F47" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="G47" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="I47" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J47" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K47" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="L47" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M47" s="24"/>
-    </row>
-    <row r="48" spans="1:13" ht="50.4">
-      <c r="A48" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="E48" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="F48" s="31" t="s">
-        <v>246</v>
-      </c>
-      <c r="G48" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="H48" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="I48" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J48" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K48" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="L48" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M48" s="6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" ht="33.6">
-      <c r="A49" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="E49" s="31" t="s">
-        <v>248</v>
-      </c>
-      <c r="F49" s="31" t="s">
-        <v>247</v>
-      </c>
-      <c r="G49" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H49" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="I49" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J49" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K49" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="L49" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M49" s="24"/>
-    </row>
-    <row r="50" spans="1:13" ht="33.6">
-      <c r="A50" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="B50" s="26" t="s">
-        <v>237</v>
-      </c>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="E50" s="31" t="s">
-        <v>250</v>
-      </c>
-      <c r="F50" s="31" t="s">
-        <v>249</v>
-      </c>
-      <c r="G50" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H50" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="I50" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J50" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K50" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="L50" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M50" s="24"/>
-    </row>
-    <row r="51" spans="1:13" ht="33.6">
-      <c r="A51" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="B51" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="E51" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="F51" s="31" t="s">
-        <v>251</v>
-      </c>
-      <c r="G51" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H51" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="I51" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J51" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K51" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="L51" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M51" s="24"/>
-    </row>
-    <row r="52" spans="1:13" ht="33.6">
-      <c r="A52" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="B52" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="E52" s="31" t="s">
-        <v>252</v>
-      </c>
-      <c r="F52" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="G52" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H52" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="I52" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J52" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K52" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="L52" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M52" s="24"/>
-    </row>
-    <row r="53" spans="1:13" ht="16.8">
-      <c r="A53" s="56" t="s">
-        <v>210</v>
-      </c>
-      <c r="B53" s="56"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="56"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="56"/>
-      <c r="K53" s="56"/>
-      <c r="L53" s="56"/>
-      <c r="M53" s="56"/>
-    </row>
-    <row r="54" spans="1:13" ht="33.6">
-      <c r="A54" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="D54" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E54" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="F54" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="G54" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H54" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="I54" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J54" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K54" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="L54" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M54" s="15"/>
-    </row>
-    <row r="55" spans="1:13" ht="33.6">
-      <c r="A55" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="C55" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="D55" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E55" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="F55" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="G55" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H55" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="I55" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J55" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K55" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="L55" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M55" s="15"/>
-    </row>
-    <row r="56" spans="1:13" ht="50.4">
-      <c r="A56" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="D56" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E56" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="F56" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="G56" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H56" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="I56" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J56" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K56" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="L56" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M56" s="15"/>
-    </row>
-    <row r="57" spans="1:13" ht="33.6">
-      <c r="A57" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="C57" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="D57" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E57" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="F57" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="G57" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H57" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="I57" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J57" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K57" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="L57" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M57" s="15"/>
+      <c r="I80" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J80" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K80" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="L80" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M80" s="15"/>
+    </row>
+    <row r="81" spans="1:13" ht="67.2">
+      <c r="A81" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="C81" s="42" t="s">
+        <v>289</v>
+      </c>
+      <c r="D81" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="E81" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="F81" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="G81" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H81" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="I81" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J81" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K81" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="L81" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M81" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A53:M53"/>
+    <mergeCell ref="A76:M76"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="A39:M39"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:M38"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="F68:F70"/>
+    <mergeCell ref="A71:M71"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="J68:L68"/>
+    <mergeCell ref="M68:M70"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="J69:L69"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G40:G52 J54:J57 G54:G57 J40:J52" xr:uid="{BED3DB32-B205-405E-83C0-5F3ECA57256C}">
+    <dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G72:G75 J77:J81 G77:G81 J72:J75" xr:uid="{BED3DB32-B205-405E-83C0-5F3ECA57256C}">
       <formula1>"Passed,Untested,Failed,Blocked"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4640,10 +4382,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6A6495-F3A5-4F71-8772-9006BFBEACE0}">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39:L44"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4654,7 +4396,7 @@
     <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.33203125" customWidth="1"/>
     <col min="6" max="6" width="39.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" customWidth="1"/>
     <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4663,7 +4405,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C1" s="57"/>
       <c r="D1" s="57"/>
@@ -4675,7 +4417,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="58"/>
       <c r="D2" s="58"/>
@@ -4708,7 +4450,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="6">
         <f>COUNTIF(G36:G49,"Untested")</f>
@@ -4745,204 +4487,204 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.8">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="40"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="1:6" ht="16.8">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="40"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="35"/>
     </row>
     <row r="8" spans="1:6" ht="16.8">
-      <c r="A8" s="39"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="40"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="35"/>
     </row>
     <row r="9" spans="1:6" ht="16.8">
-      <c r="A9" s="39"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="40"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="35"/>
     </row>
     <row r="10" spans="1:6" ht="16.8">
-      <c r="A10" s="39"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="40"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" spans="1:6" ht="16.8">
-      <c r="A11" s="39"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="40"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="1:6" ht="16.8">
-      <c r="A12" s="39"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="40"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="1:6" ht="16.8">
-      <c r="A13" s="39"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="40"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" spans="1:6" ht="16.8">
-      <c r="A14" s="39"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="40"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="1:6" ht="16.8">
-      <c r="A15" s="39"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="40"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:6" ht="16.8">
-      <c r="A16" s="39"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="40"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="35"/>
     </row>
     <row r="17" spans="1:13" ht="16.8">
-      <c r="A17" s="39"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="40"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="35"/>
     </row>
     <row r="18" spans="1:13" ht="16.8">
-      <c r="A18" s="39"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="40"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="35"/>
     </row>
     <row r="19" spans="1:13" ht="16.8">
-      <c r="A19" s="39"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="40"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="35"/>
     </row>
     <row r="20" spans="1:13" ht="16.8">
-      <c r="A20" s="39"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="40"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="35"/>
     </row>
     <row r="21" spans="1:13" ht="16.8">
-      <c r="A21" s="39"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="40"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="35"/>
     </row>
     <row r="22" spans="1:13" ht="16.8">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="40"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="35"/>
     </row>
     <row r="23" spans="1:13" ht="16.8">
-      <c r="A23" s="39"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="40"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="35"/>
     </row>
     <row r="24" spans="1:13" ht="16.8">
-      <c r="A24" s="39"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="40"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="35"/>
     </row>
     <row r="25" spans="1:13" ht="16.8">
-      <c r="A25" s="39"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="40"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="35"/>
     </row>
     <row r="26" spans="1:13" ht="16.8">
-      <c r="A26" s="39"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="40"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="35"/>
     </row>
     <row r="27" spans="1:13" ht="16.8">
-      <c r="A27" s="39"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="40"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="35"/>
     </row>
     <row r="28" spans="1:13" ht="16.8">
-      <c r="A28" s="39"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="40"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="35"/>
     </row>
     <row r="29" spans="1:13" ht="16.8">
-      <c r="A29" s="39"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="40"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="35"/>
     </row>
     <row r="30" spans="1:13" ht="16.8">
-      <c r="A30" s="39"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="40"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="35"/>
     </row>
     <row r="32" spans="1:13" ht="16.8">
       <c r="A32" s="59" t="s">
@@ -5025,7 +4767,7 @@
     </row>
     <row r="35" spans="1:13" ht="16.8">
       <c r="A35" s="56" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B35" s="56"/>
       <c r="C35" s="56"/>
@@ -5041,341 +4783,341 @@
       <c r="M35" s="56"/>
     </row>
     <row r="36" spans="1:13" ht="33.6">
-      <c r="A36" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>185</v>
+      <c r="A36" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>167</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E36" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="F36" s="31" t="s">
-        <v>186</v>
-      </c>
-      <c r="G36" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H36" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="I36" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J36" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K36" s="43" t="s">
-        <v>276</v>
-      </c>
-      <c r="L36" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M36" s="35"/>
+        <v>123</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="I36" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J36" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K36" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="L36" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M36" s="31"/>
     </row>
     <row r="37" spans="1:13" ht="50.4">
-      <c r="A37" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="B37" s="33" t="s">
-        <v>187</v>
+      <c r="A37" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>169</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E37" s="34" t="s">
-        <v>265</v>
-      </c>
-      <c r="F37" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="G37" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H37" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="I37" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J37" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K37" s="44" t="s">
-        <v>276</v>
-      </c>
-      <c r="L37" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M37" s="35"/>
+        <v>123</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="I37" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J37" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="L37" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M37" s="31"/>
     </row>
     <row r="38" spans="1:13" ht="33.6">
-      <c r="A38" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="B38" s="33" t="s">
-        <v>260</v>
+      <c r="A38" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>199</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>205</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="I38" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J38" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K38" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="L38" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M38" s="31"/>
+    </row>
+    <row r="39" spans="1:13" ht="33.6">
+      <c r="A39" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="E38" s="34" t="s">
-        <v>266</v>
-      </c>
-      <c r="F38" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="G38" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H38" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="I38" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J38" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K38" s="44" t="s">
-        <v>276</v>
-      </c>
-      <c r="L38" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M38" s="35"/>
-    </row>
-    <row r="39" spans="1:13" ht="33.6">
-      <c r="A39" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="B39" s="33" t="s">
-        <v>261</v>
+      <c r="B39" s="29" t="s">
+        <v>200</v>
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E39" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="F39" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="G39" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H39" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="I39" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J39" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K39" s="44" t="s">
-        <v>276</v>
-      </c>
-      <c r="L39" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M39" s="35"/>
+        <v>123</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="G39" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="I39" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J39" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K39" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="L39" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M39" s="31"/>
     </row>
     <row r="40" spans="1:13" ht="33.6">
-      <c r="A40" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="B40" s="33" t="s">
-        <v>262</v>
+      <c r="A40" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>201</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E40" s="34" t="s">
-        <v>269</v>
-      </c>
-      <c r="F40" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="G40" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H40" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="I40" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J40" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K40" s="44" t="s">
-        <v>276</v>
-      </c>
-      <c r="L40" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M40" s="35"/>
+        <v>123</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="I40" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J40" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K40" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="L40" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M40" s="31"/>
     </row>
     <row r="41" spans="1:13" ht="33.6">
-      <c r="A41" s="32" t="s">
-        <v>256</v>
-      </c>
-      <c r="B41" s="33" t="s">
-        <v>234</v>
+      <c r="A41" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>192</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E41" s="34" t="s">
-        <v>270</v>
-      </c>
-      <c r="F41" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="G41" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H41" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="I41" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J41" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K41" s="44" t="s">
-        <v>276</v>
-      </c>
-      <c r="L41" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M41" s="35"/>
+        <v>123</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>209</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="G41" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="I41" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J41" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K41" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="L41" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M41" s="31"/>
     </row>
     <row r="42" spans="1:13" ht="33.6">
-      <c r="A42" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="B42" s="33" t="s">
-        <v>240</v>
+      <c r="A42" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>193</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E42" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="F42" s="31" t="s">
-        <v>271</v>
-      </c>
-      <c r="G42" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H42" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="I42" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J42" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K42" s="44" t="s">
-        <v>276</v>
-      </c>
-      <c r="L42" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M42" s="35"/>
+        <v>123</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="G42" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="I42" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J42" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K42" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="L42" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M42" s="31"/>
     </row>
     <row r="43" spans="1:13" ht="33.6">
-      <c r="A43" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="B43" s="33" t="s">
-        <v>263</v>
+      <c r="A43" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>202</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E43" s="34" t="s">
-        <v>273</v>
-      </c>
-      <c r="F43" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="G43" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H43" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="I43" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J43" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K43" s="44" t="s">
-        <v>276</v>
-      </c>
-      <c r="L43" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M43" s="35"/>
+        <v>123</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="G43" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="I43" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J43" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K43" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="L43" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M43" s="31"/>
     </row>
     <row r="44" spans="1:13" ht="33.6">
-      <c r="A44" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="B44" s="33" t="s">
-        <v>264</v>
+      <c r="A44" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>203</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E44" s="34" t="s">
-        <v>274</v>
-      </c>
-      <c r="F44" s="31" t="s">
-        <v>275</v>
-      </c>
-      <c r="G44" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="I44" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J44" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K44" s="44" t="s">
-        <v>276</v>
-      </c>
-      <c r="L44" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M44" s="35"/>
+        <v>123</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="G44" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="I44" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J44" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K44" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="L44" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M44" s="31"/>
     </row>
     <row r="45" spans="1:13" ht="16.8">
       <c r="A45" s="56" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B45" s="56"/>
       <c r="C45" s="56"/>
@@ -5391,199 +5133,208 @@
       <c r="M45" s="56"/>
     </row>
     <row r="46" spans="1:13" ht="33.6">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="F46" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="G46" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="I46" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J46" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K46" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="L46" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M46" s="31"/>
+    </row>
+    <row r="47" spans="1:13" ht="50.4">
+      <c r="A47" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="F47" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="G47" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="I47" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J47" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K47" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="L47" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M47" s="31"/>
+    </row>
+    <row r="48" spans="1:13" ht="50.4">
+      <c r="A48" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="F48" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="G48" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="I48" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J48" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K48" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="L48" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M48" s="31"/>
+    </row>
+    <row r="49" spans="1:13" ht="33.6">
+      <c r="A49" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="B46" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E46" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="F46" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="G46" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H46" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="I46" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J46" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K46" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="L46" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M46" s="35"/>
-    </row>
-    <row r="47" spans="1:13" ht="50.4">
-      <c r="A47" s="32" t="s">
+      <c r="B49" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="B47" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E47" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="F47" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="G47" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="I47" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J47" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K47" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="L47" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M47" s="35"/>
-    </row>
-    <row r="48" spans="1:13" ht="50.4">
-      <c r="A48" s="32" t="s">
+      <c r="C49" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B48" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E48" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="F48" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="G48" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H48" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="I48" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J48" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K48" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="L48" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M48" s="35"/>
-    </row>
-    <row r="49" spans="1:13" ht="33.6">
-      <c r="A49" s="32" t="s">
+      <c r="D49" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="E49" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="F49" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="G49" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="I49" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J49" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K49" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="L49" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M49" s="31"/>
+    </row>
+    <row r="50" spans="1:13" ht="67.2">
+      <c r="A50" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="B50" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="E49" s="34" t="s">
+      <c r="C50" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="F49" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="G49" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H49" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="I49" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J49" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K49" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="L49" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M49" s="35"/>
-    </row>
-    <row r="50" spans="1:13" ht="67.2">
-      <c r="A50" s="32" t="s">
+      <c r="D50" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E50" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="B50" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E50" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="F50" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="G50" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H50" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="I50" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J50" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K50" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="L50" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M50" s="35"/>
+      <c r="F50" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="G50" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="H50" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="I50" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J50" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K50" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="L50" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M50" s="31"/>
+    </row>
+    <row r="51" spans="1:13" ht="16.8">
+      <c r="K51" s="38"/>
+    </row>
+    <row r="52" spans="1:13" ht="16.8">
+      <c r="K52" s="38"/>
+    </row>
+    <row r="53" spans="1:13" ht="16.8">
+      <c r="K53" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -5620,7 +5371,7 @@
   <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5640,7 +5391,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C1" s="57"/>
       <c r="D1" s="57"/>
@@ -5652,7 +5403,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="58"/>
       <c r="D2" s="58"/>
@@ -5685,7 +5436,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="6">
         <f>COUNTIF(G42:G55,"Untested")</f>
@@ -5722,252 +5473,252 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.8">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="40"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="1:6" ht="16.8">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="40"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="35"/>
     </row>
     <row r="8" spans="1:6" ht="16.8">
-      <c r="A8" s="39"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="40"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="35"/>
     </row>
     <row r="9" spans="1:6" ht="16.8">
-      <c r="A9" s="39"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="40"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="35"/>
     </row>
     <row r="10" spans="1:6" ht="16.8">
-      <c r="A10" s="39"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="40"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" spans="1:6" ht="16.8">
-      <c r="A11" s="39"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="40"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="1:6" ht="16.8">
-      <c r="A12" s="39"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="40"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="1:6" ht="16.8">
-      <c r="A13" s="39"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="40"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" spans="1:6" ht="16.8">
-      <c r="A14" s="39"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="40"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="1:6" ht="16.8">
-      <c r="A15" s="39"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="40"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:6" ht="16.8">
-      <c r="A16" s="39"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="40"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="35"/>
     </row>
     <row r="17" spans="1:6" ht="16.8">
-      <c r="A17" s="39"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="40"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="35"/>
     </row>
     <row r="18" spans="1:6" ht="16.8">
-      <c r="A18" s="39"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="40"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="35"/>
     </row>
     <row r="19" spans="1:6" ht="16.8">
-      <c r="A19" s="39"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="40"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="35"/>
     </row>
     <row r="20" spans="1:6" ht="16.8">
-      <c r="A20" s="39"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="40"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="35"/>
     </row>
     <row r="21" spans="1:6" ht="16.8">
-      <c r="A21" s="39"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="40"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="35"/>
     </row>
     <row r="22" spans="1:6" ht="16.8">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="40"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="35"/>
     </row>
     <row r="23" spans="1:6" ht="16.8">
-      <c r="A23" s="39"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="40"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="35"/>
     </row>
     <row r="24" spans="1:6" ht="16.8">
-      <c r="A24" s="39"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="40"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="35"/>
     </row>
     <row r="25" spans="1:6" ht="16.8">
-      <c r="A25" s="39"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="40"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="35"/>
     </row>
     <row r="26" spans="1:6" ht="16.8">
-      <c r="A26" s="39"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="40"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="35"/>
     </row>
     <row r="27" spans="1:6" ht="16.8">
-      <c r="A27" s="39"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="40"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="35"/>
     </row>
     <row r="28" spans="1:6" ht="16.8">
-      <c r="A28" s="39"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="40"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="35"/>
     </row>
     <row r="29" spans="1:6" ht="16.8">
-      <c r="A29" s="39"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="40"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="35"/>
     </row>
     <row r="30" spans="1:6" ht="16.8">
-      <c r="A30" s="39"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="40"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="35"/>
     </row>
     <row r="31" spans="1:6" ht="16.8">
-      <c r="A31" s="39"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="40"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="35"/>
     </row>
     <row r="32" spans="1:6" ht="16.8">
-      <c r="A32" s="39"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="40"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:13" ht="16.8">
-      <c r="A33" s="39"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="40"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="35"/>
     </row>
     <row r="34" spans="1:13" ht="16.8">
-      <c r="A34" s="39"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="40"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="35"/>
     </row>
     <row r="35" spans="1:13" ht="16.8">
-      <c r="A35" s="39"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="40"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="35"/>
     </row>
     <row r="36" spans="1:13" ht="16.8">
-      <c r="A36" s="39"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="40"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="35"/>
     </row>
     <row r="38" spans="1:13" ht="16.8">
       <c r="A38" s="59" t="s">
@@ -6050,7 +5801,7 @@
     </row>
     <row r="41" spans="1:13" ht="16.8">
       <c r="A41" s="56" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B41" s="56"/>
       <c r="C41" s="56"/>
@@ -6066,341 +5817,341 @@
       <c r="M41" s="56"/>
     </row>
     <row r="42" spans="1:13" ht="33.6">
-      <c r="A42" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="B42" s="33" t="s">
-        <v>198</v>
+      <c r="A42" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>268</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E42" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="F42" s="34" t="s">
-        <v>199</v>
-      </c>
-      <c r="G42" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H42" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="I42" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J42" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K42" s="36" t="s">
-        <v>299</v>
-      </c>
-      <c r="L42" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M42" s="35"/>
+        <v>123</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="F42" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="G42" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="I42" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J42" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K42" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="L42" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M42" s="31"/>
     </row>
     <row r="43" spans="1:13" ht="50.4">
-      <c r="A43" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="B43" s="33" t="s">
-        <v>200</v>
+      <c r="A43" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>180</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E43" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="F43" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="G43" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H43" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="I43" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J43" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K43" s="36" t="s">
-        <v>299</v>
-      </c>
-      <c r="L43" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M43" s="35"/>
+        <v>123</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="F43" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="G43" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="I43" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J43" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K43" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="L43" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M43" s="31"/>
     </row>
     <row r="44" spans="1:13" ht="33.6">
-      <c r="A44" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="B44" s="33" t="s">
-        <v>261</v>
+      <c r="A44" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>200</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E44" s="34" t="s">
-        <v>286</v>
-      </c>
-      <c r="F44" s="34" t="s">
-        <v>286</v>
-      </c>
-      <c r="G44" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="I44" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J44" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K44" s="36" t="s">
-        <v>299</v>
-      </c>
-      <c r="L44" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M44" s="35"/>
+        <v>123</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="G44" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H44" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="I44" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J44" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K44" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="L44" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M44" s="31"/>
     </row>
     <row r="45" spans="1:13" ht="33.6">
-      <c r="A45" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>233</v>
+      <c r="A45" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>191</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E45" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="F45" s="34" t="s">
-        <v>288</v>
-      </c>
-      <c r="G45" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H45" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="I45" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J45" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K45" s="36" t="s">
-        <v>299</v>
-      </c>
-      <c r="L45" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M45" s="35"/>
+        <v>123</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="G45" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="I45" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J45" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K45" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="L45" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M45" s="31"/>
     </row>
     <row r="46" spans="1:13" ht="50.4">
-      <c r="A46" s="32" t="s">
-        <v>277</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>282</v>
+      <c r="A46" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>221</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E46" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="F46" s="34" t="s">
-        <v>290</v>
-      </c>
-      <c r="G46" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H46" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="I46" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J46" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K46" s="36" t="s">
-        <v>299</v>
-      </c>
-      <c r="L46" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M46" s="35"/>
+        <v>123</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="F46" s="30" t="s">
+        <v>229</v>
+      </c>
+      <c r="G46" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="I46" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J46" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K46" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="L46" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M46" s="31"/>
     </row>
     <row r="47" spans="1:13" ht="33.6">
-      <c r="A47" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="B47" s="33" t="s">
-        <v>234</v>
+      <c r="A47" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>192</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E47" s="34" t="s">
-        <v>291</v>
-      </c>
-      <c r="F47" s="34" t="s">
-        <v>292</v>
-      </c>
-      <c r="G47" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="I47" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J47" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K47" s="36" t="s">
-        <v>299</v>
-      </c>
-      <c r="L47" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M47" s="35"/>
+        <v>123</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="F47" s="30" t="s">
+        <v>231</v>
+      </c>
+      <c r="G47" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="I47" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J47" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K47" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="L47" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M47" s="31"/>
     </row>
     <row r="48" spans="1:13" ht="33.6">
-      <c r="A48" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="B48" s="33" t="s">
-        <v>283</v>
+      <c r="A48" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>222</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E48" s="34" t="s">
-        <v>293</v>
-      </c>
-      <c r="F48" s="34" t="s">
-        <v>295</v>
-      </c>
-      <c r="G48" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H48" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="I48" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J48" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K48" s="36" t="s">
-        <v>299</v>
-      </c>
-      <c r="L48" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M48" s="35"/>
+        <v>123</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="F48" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="G48" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="I48" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J48" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K48" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="L48" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M48" s="31"/>
     </row>
     <row r="49" spans="1:13" ht="33.6">
-      <c r="A49" s="32" t="s">
-        <v>280</v>
-      </c>
-      <c r="B49" s="33" t="s">
-        <v>284</v>
+      <c r="A49" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>223</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E49" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="F49" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>233</v>
+      </c>
+      <c r="F49" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="G49" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="I49" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J49" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K49" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="G49" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H49" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="I49" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J49" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K49" s="36" t="s">
-        <v>299</v>
-      </c>
-      <c r="L49" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M49" s="35"/>
+      <c r="L49" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M49" s="31"/>
     </row>
     <row r="50" spans="1:13" ht="33.6">
-      <c r="A50" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="B50" s="33" t="s">
-        <v>285</v>
+      <c r="A50" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>224</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E50" s="34" t="s">
-        <v>297</v>
-      </c>
-      <c r="F50" s="34" t="s">
-        <v>298</v>
-      </c>
-      <c r="G50" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H50" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="I50" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J50" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K50" s="36" t="s">
-        <v>299</v>
-      </c>
-      <c r="L50" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M50" s="35"/>
+        <v>123</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="F50" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="G50" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="I50" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J50" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K50" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="L50" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M50" s="31"/>
     </row>
     <row r="51" spans="1:13" ht="16.8">
       <c r="A51" s="56" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B51" s="56"/>
       <c r="C51" s="56"/>
@@ -6416,160 +6167,160 @@
       <c r="M51" s="56"/>
     </row>
     <row r="52" spans="1:13" ht="50.4">
-      <c r="A52" s="32" t="s">
+      <c r="A52" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="F52" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="G52" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="I52" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J52" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K52" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="L52" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M52" s="31"/>
+    </row>
+    <row r="53" spans="1:13" ht="33.6">
+      <c r="A53" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="F53" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="G53" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="I53" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J53" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K53" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="L53" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M53" s="31"/>
+    </row>
+    <row r="54" spans="1:13" ht="50.4">
+      <c r="A54" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="B52" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E52" s="34" t="s">
+      <c r="B54" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="F54" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="G54" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="I54" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J54" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K54" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="L54" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M54" s="31"/>
+    </row>
+    <row r="55" spans="1:13" ht="33.6">
+      <c r="A55" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="F52" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="G52" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H52" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="I52" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J52" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K52" s="36">
-        <v>45766</v>
-      </c>
-      <c r="L52" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M52" s="35"/>
-    </row>
-    <row r="53" spans="1:13" ht="33.6">
-      <c r="A53" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="B53" s="33" t="s">
+      <c r="B55" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E55" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="F55" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E53" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="F53" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="G53" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H53" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="I53" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J53" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K53" s="36">
-        <v>45767</v>
-      </c>
-      <c r="L53" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M53" s="35"/>
-    </row>
-    <row r="54" spans="1:13" ht="50.4">
-      <c r="A54" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="B54" s="33" t="s">
-        <v>301</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="D54" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E54" s="34" t="s">
-        <v>303</v>
-      </c>
-      <c r="F54" s="34" t="s">
-        <v>303</v>
-      </c>
-      <c r="G54" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H54" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="I54" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J54" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K54" s="36">
-        <v>45767</v>
-      </c>
-      <c r="L54" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M54" s="35"/>
-    </row>
-    <row r="55" spans="1:13" ht="33.6">
-      <c r="A55" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="B55" s="33" t="s">
-        <v>304</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E55" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="F55" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="G55" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H55" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="I55" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J55" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K55" s="36">
-        <v>45767</v>
-      </c>
-      <c r="L55" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M55" s="35"/>
+      <c r="G55" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="H55" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="I55" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J55" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K55" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="L55" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M55" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -6605,8 +6356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3D8371-8682-46F0-B3EB-01408B10CEF9}">
   <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6626,7 +6377,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C1" s="57"/>
       <c r="D1" s="57"/>
@@ -6638,7 +6389,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C2" s="58"/>
       <c r="D2" s="58"/>
@@ -6671,7 +6422,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="6">
         <f>COUNTIF(G40:G46,"Untested")</f>
@@ -6708,244 +6459,244 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.8">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="40"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="35"/>
     </row>
     <row r="7" spans="1:6" ht="16.8">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="40"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="35"/>
     </row>
     <row r="8" spans="1:6" ht="16.8">
-      <c r="A8" s="39"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="40"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="35"/>
     </row>
     <row r="9" spans="1:6" ht="16.8">
-      <c r="A9" s="39"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="40"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="35"/>
     </row>
     <row r="10" spans="1:6" ht="16.8">
-      <c r="A10" s="39"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="40"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="35"/>
     </row>
     <row r="11" spans="1:6" ht="16.8">
-      <c r="A11" s="39"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="40"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="1:6" ht="16.8">
-      <c r="A12" s="39"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="40"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="35"/>
     </row>
     <row r="13" spans="1:6" ht="16.8">
-      <c r="A13" s="39"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="40"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" spans="1:6" ht="16.8">
-      <c r="A14" s="39"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="40"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="1:6" ht="16.8">
-      <c r="A15" s="39"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="40"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="35"/>
     </row>
     <row r="16" spans="1:6" ht="16.8">
-      <c r="A16" s="39"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="40"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="35"/>
     </row>
     <row r="17" spans="1:6" ht="16.8">
-      <c r="A17" s="39"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="40"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="35"/>
     </row>
     <row r="18" spans="1:6" ht="16.8">
-      <c r="A18" s="39"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="40"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="35"/>
     </row>
     <row r="19" spans="1:6" ht="16.8">
-      <c r="A19" s="39"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="40"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="35"/>
     </row>
     <row r="20" spans="1:6" ht="16.8">
-      <c r="A20" s="39"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="40"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="35"/>
     </row>
     <row r="21" spans="1:6" ht="16.8">
-      <c r="A21" s="39"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="40"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="35"/>
     </row>
     <row r="22" spans="1:6" ht="16.8">
-      <c r="A22" s="39"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="40"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="35"/>
     </row>
     <row r="23" spans="1:6" ht="16.8">
-      <c r="A23" s="39"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="40"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="35"/>
     </row>
     <row r="24" spans="1:6" ht="16.8">
-      <c r="A24" s="39"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="40"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="35"/>
     </row>
     <row r="25" spans="1:6" ht="16.8">
-      <c r="A25" s="39"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="40"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="35"/>
     </row>
     <row r="26" spans="1:6" ht="16.8">
-      <c r="A26" s="39"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="40"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="35"/>
     </row>
     <row r="27" spans="1:6" ht="16.8">
-      <c r="A27" s="39"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="40"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="35"/>
     </row>
     <row r="28" spans="1:6" ht="16.8">
-      <c r="A28" s="39"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="40"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="35"/>
     </row>
     <row r="29" spans="1:6" ht="16.8">
-      <c r="A29" s="39"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="40"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="35"/>
     </row>
     <row r="30" spans="1:6" ht="16.8">
-      <c r="A30" s="39"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="40"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="35"/>
     </row>
     <row r="31" spans="1:6" ht="16.8">
-      <c r="A31" s="39"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="40"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="35"/>
     </row>
     <row r="32" spans="1:6" ht="16.8">
-      <c r="A32" s="39"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="40"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:13" ht="16.8">
-      <c r="A33" s="39"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="40"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="35"/>
     </row>
     <row r="34" spans="1:13" ht="16.8">
-      <c r="A34" s="39"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="40"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="35"/>
     </row>
     <row r="35" spans="1:13" ht="16.8">
-      <c r="A35" s="39"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="40"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="35"/>
     </row>
     <row r="36" spans="1:13" ht="16.8">
       <c r="A36" s="59" t="s">
@@ -7028,7 +6779,7 @@
     </row>
     <row r="39" spans="1:13" ht="16.8">
       <c r="A39" s="56" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B39" s="56"/>
       <c r="C39" s="56"/>
@@ -7044,119 +6795,119 @@
       <c r="M39" s="56"/>
     </row>
     <row r="40" spans="1:13" ht="33.6">
-      <c r="A40" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="B40" s="33" t="s">
-        <v>308</v>
+      <c r="A40" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>246</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E40" s="34" t="s">
-        <v>309</v>
-      </c>
-      <c r="F40" s="34" t="s">
-        <v>309</v>
-      </c>
-      <c r="G40" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H40" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="I40" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J40" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K40" s="36" t="s">
-        <v>323</v>
-      </c>
-      <c r="L40" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M40" s="35"/>
+        <v>94</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="F40" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H40" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="I40" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J40" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K40" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="L40" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M40" s="31"/>
     </row>
     <row r="41" spans="1:13" ht="33.6">
-      <c r="A41" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="B41" s="33" t="s">
-        <v>310</v>
+      <c r="A41" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>248</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E41" s="34" t="s">
-        <v>311</v>
-      </c>
-      <c r="F41" s="34" t="s">
-        <v>311</v>
-      </c>
-      <c r="G41" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H41" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="I41" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J41" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K41" s="36" t="s">
-        <v>323</v>
-      </c>
-      <c r="L41" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M41" s="35"/>
+        <v>94</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="G41" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="I41" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J41" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K41" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="L41" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M41" s="31"/>
     </row>
     <row r="42" spans="1:13" ht="33.6">
-      <c r="A42" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="B42" s="33" t="s">
-        <v>324</v>
+      <c r="A42" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>261</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E42" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="F42" s="34" t="s">
-        <v>326</v>
-      </c>
-      <c r="G42" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H42" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="I42" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J42" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K42" s="36" t="s">
-        <v>323</v>
-      </c>
-      <c r="L42" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M42" s="35"/>
+        <v>94</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="F42" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="G42" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H42" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="I42" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J42" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K42" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="L42" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M42" s="31"/>
     </row>
     <row r="43" spans="1:13" ht="16.8">
       <c r="A43" s="56" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B43" s="56"/>
       <c r="C43" s="56"/>
@@ -7172,158 +6923,158 @@
       <c r="M43" s="56"/>
     </row>
     <row r="44" spans="1:13" ht="50.4">
-      <c r="A44" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="B44" s="33" t="s">
-        <v>312</v>
+      <c r="A44" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>250</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>314</v>
+        <v>252</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E44" s="34" t="s">
-        <v>316</v>
-      </c>
-      <c r="F44" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="G44" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H44" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="I44" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J44" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K44" s="36" t="s">
-        <v>323</v>
-      </c>
-      <c r="L44" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M44" s="35"/>
+        <v>94</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="F44" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="G44" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="H44" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="I44" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J44" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K44" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="L44" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M44" s="31"/>
     </row>
     <row r="45" spans="1:13" ht="50.4">
-      <c r="A45" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="B45" s="33" t="s">
-        <v>313</v>
+      <c r="A45" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>251</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>314</v>
+        <v>252</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E45" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="F45" s="34" t="s">
-        <v>318</v>
-      </c>
-      <c r="G45" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H45" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="I45" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J45" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K45" s="36" t="s">
-        <v>323</v>
-      </c>
-      <c r="L45" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M45" s="35"/>
+        <v>94</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="G45" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="I45" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J45" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K45" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="L45" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M45" s="31"/>
     </row>
     <row r="46" spans="1:13" ht="50.4">
-      <c r="A46" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>327</v>
+      <c r="A46" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>264</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E46" s="34" t="s">
-        <v>328</v>
-      </c>
-      <c r="F46" s="34" t="s">
-        <v>322</v>
-      </c>
-      <c r="G46" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H46" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="I46" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J46" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K46" s="36" t="s">
-        <v>323</v>
-      </c>
-      <c r="L46" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M46" s="35"/>
+        <v>94</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="F46" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="G46" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="I46" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J46" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K46" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="L46" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M46" s="31"/>
     </row>
     <row r="47" spans="1:13" ht="50.4">
-      <c r="A47" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="B47" s="33" t="s">
-        <v>319</v>
+      <c r="A47" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>256</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>320</v>
+        <v>257</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E47" s="34" t="s">
-        <v>321</v>
-      </c>
-      <c r="F47" s="34" t="s">
-        <v>322</v>
-      </c>
-      <c r="G47" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="I47" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="J47" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K47" s="36" t="s">
-        <v>323</v>
-      </c>
-      <c r="L47" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="M47" s="35"/>
+        <v>94</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="F47" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="G47" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="I47" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="J47" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K47" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="L47" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="M47" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="15">
